--- a/PROJECT DOCUMENTATION/Documentation for Website.xlsx
+++ b/PROJECT DOCUMENTATION/Documentation for Website.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\FinalProject-MachineLearning\PROJECT DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C4553-47C1-445E-A56A-5EAB68A96219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085F341-F6C3-4E02-B12C-AA89DF0171DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How Mortality rates created" sheetId="1" r:id="rId1"/>
     <sheet name="CREDITS" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -437,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -469,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F84FC6-5D2C-41EB-BF32-A1C7970AEEA7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -477,4 +478,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE4006-7AFB-42F3-8705-523BC8A064A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PROJECT DOCUMENTATION/Documentation for Website.xlsx
+++ b/PROJECT DOCUMENTATION/Documentation for Website.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\FinalProject-MachineLearning\PROJECT DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7085F341-F6C3-4E02-B12C-AA89DF0171DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025052A2-DEBB-44B8-A747-C6E032FCE1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2415" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="How Mortality rates created" sheetId="1" r:id="rId1"/>
     <sheet name="CREDITS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="NAV BAR" sheetId="3" r:id="rId3"/>
+    <sheet name="TEAM" sheetId="4" r:id="rId4"/>
+    <sheet name="TOPIC" sheetId="5" r:id="rId5"/>
+    <sheet name="Visualizations" sheetId="6" r:id="rId6"/>
+    <sheet name="MACHINE LEARNING" sheetId="7" r:id="rId7"/>
+    <sheet name="INput FORM" sheetId="8" r:id="rId8"/>
+    <sheet name="Conclusions" sheetId="9" r:id="rId9"/>
+    <sheet name="References" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <r>
       <t>The total expected number of </t>
@@ -92,13 +99,2222 @@
   </si>
   <si>
     <t>https://wwwn.cdc.gov/eWorld/Appendix/Mortality</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#teamintro"&gt;Team Introduction&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#topicintro"&gt;Topic Introduction&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#d3Map"&gt;Visualization&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#machinelearning"&gt;Machine Learning&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#conclusions"&gt;Conclusions&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#references"&gt;References Used&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="nav-link js-scroll-trigger" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="#input"&gt;Input Form&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;!-- #teamintro --&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>      &lt;section </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='teamintro' </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="container"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="container"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='row'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='col-md-12 col-md-12'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>              &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='greybox'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                &lt;h2&gt;Introduction: &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>              &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="spacer" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="height:25px"&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>              &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='col-md-12 col-md-12'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;Welcome to Our Team!&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;"The Team" &lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!--Topic Discussion--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;section </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='topicintro' </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="container"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="container"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='row'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='greybox'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                  &lt;h2&gt;Topic Introduction: &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="spacer" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="height:25px"&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='col-md-12 col-md-12'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;Infant Mortality&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;"Infant mortality is a key indicator of health and the effectiveness of a health care system," says the United Health Foundation in it's annual compilation of Health Rankings.  Additionally, per HealthCatalyst quoting the WHO, CMS, The Joint Commission and the National Association for Healthcare Quality, mortality as a whole is the number one population health outcome measure.  " &lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;Mortality Statistics&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;Mortality statistics are gathered by the CDC and the (NCHS) National Vital Statistics System.  Infant mortality is defined as the death of child before their first birthday.  The infant mortality rate is the number of infant deaths recorded for every 1,000 live births, per the CDC.  The overall infant mortality rate for the United States in 2017 was 5.8 deaths per 1,000 live births.  </t>
+    </r>
+  </si>
+  <si>
+    <t>                  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;Leading Causes of Death&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;The leading causes of death for a newborn only shift slightly from year to year.  Per the CDC in the year 2017, the top five causes of death were: 1. Birth Defects, 2. Preterm Birth / low birth weight, 3. Maternal Pregnancy Complications 4. Sudden Infant Death Syndrome (SIDS) and 5. Injuries.  A more concerning statistic is that the 2018 infant mortality level was 579.3 per 100,000 births in the US, but remained statistically unchanged from 2016, with 587.0 deaths per 100,000. The only significant change from 2016 - 2017 was that two of the leading causes of death, SIDS and Unintential Injury, shifted with a 10.7% increase in injury.  SIDS dropped ranking from third to fourth.  &lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;Ohio Infant Mortality&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;Within the state of Ohio, the infant mortality picture is even more grim, ranking 41 (tied with N. Carolina out of 50 states) with a rate of 7.3 in 2018, an increase from 2017's rate of 7.0.  In the annual report of America's Health Rankings by the United Health Foundation, Ohio has some strengths such as a low uninsured population and a high rate of primary care physicians, but our challenges come from a high rate of smoking, air pollution and low rates of immunization among children.  One of the goals of this project is to see what information we can discover as to why the infant mortality rate in Ohio is on the rise and why is it so high compared to other states. &lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;h3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="title"&gt;&lt;/h3&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='text'&gt;&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>          &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                          </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;!-- Section for Input form --&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;section </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="input" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="bg-light"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="form"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="row"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>              &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="col-lg-12 mx-auto"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="greybox"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                  &lt;h2&gt;Input Form&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="lead"&gt; Please input data to receive prediction&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                &lt;br&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>='row'&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="col-lg-12"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=''&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      &lt;form </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="POST" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="{{ url_for('predict')}}"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        &lt;input </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"namequery"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        &lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"btn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>btn-primary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;Predict</t>
+    </r>
+  </si>
+  <si>
+    <t>                        &lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>                      &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                  &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>                      </t>
+  </si>
+  <si>
+    <t>                    </t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!-- Section for D3 map --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      &lt;section </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="d3Map" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="bg-light"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>          &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="row"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="col-lg-12 mx-auto"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>              &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="greybox"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                &lt;h2&gt;Visualizations&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>                  &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="lead"&gt; Select a Topic to View&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>              </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;!--&lt;div class="spacer" style="height:200px"&gt;&lt;/div&gt; --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                   &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="row"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                      &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="col-lg-12"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                        &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tablist"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                          &lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group-item list-group-item-action" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-go-list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="ian.html" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="go"&gt;Infant Mortality Data&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                          &lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group-item list-group-item-action" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-ms-list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="mj.html" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="ms"&gt;Microbiome Data&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                          &lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group-item list-group-item-action" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-ms-list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="ian2.html" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="ms"&gt;Factors Impacting Maternal/Child healthcare&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                          &lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group-item list-group-item-action" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-oc-list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="oc.html" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="oc"&gt;Infant Mortality in the US&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                          &lt;a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-group-item list-group-item-action" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list-rw-list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>data-toggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="list" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="rw.html" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="tab" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>aria-controls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="rw"&gt;Ohio Infant Mortality Data&lt;/a&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>                        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;                  </t>
+  </si>
+  <si>
+    <r>
+      <t>        &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="spacer" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="height:200px"&gt;&lt;/div&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +2343,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF011627"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,12 +2396,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,11 +2722,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FEBA85-BA04-4883-B19F-9959C4C15372}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F84FC6-5D2C-41EB-BF32-A1C7970AEEA7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -482,6 +2752,683 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFE4006-7AFB-42F3-8705-523BC8A064A0}">
+  <dimension ref="A2:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B40DE65-6C60-492D-B053-CDD3095C4171}">
+  <dimension ref="A2:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E82AA3-E88A-4396-B472-7825808AFEE0}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62183538-796C-4B2E-B727-BC165E0EE292}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E0F227-3A81-452A-B8F9-DD8734A77BE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F0067F-03BB-4A0E-9183-6CBDB61B098C}">
+  <dimension ref="A2:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F67F88-3C7F-43ED-AD58-03048234331A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
